--- a/doc/20_基本設計/01_画面系/【CS】基本設計-画面一覧仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CS】基本設計-画面一覧仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2f60d9ec78121ce/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9680F704-F1C5-411E-A42D-A3BA5D7DBD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A0AF1-44A4-4441-92D0-4EA7A97116E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BADF3AFC-359F-48C3-A4B9-466E0810DAC4}"/>
   </bookViews>
@@ -267,80 +267,80 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>承認待ち一覧画面</t>
+    <t>USER04</t>
+  </si>
+  <si>
+    <t>USER05</t>
+  </si>
+  <si>
+    <t>USER06</t>
+  </si>
+  <si>
+    <t>タスク一覧画面</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USER04</t>
-  </si>
-  <si>
-    <t>USER05</t>
-  </si>
-  <si>
-    <t>USER06</t>
-  </si>
-  <si>
-    <t>承認完了一覧画面</t>
+    <t>資格詳細画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク詳細</t>
+    <t>タスク詳細画面</t>
     <rPh sb="3" eb="5">
       <t>ショウサイ</t>
     </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録した資格の詳細情報の閲覧が可能</t>
+    <t>資格の詳細情報の閲覧が可能</t>
     <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格登録のタスク一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>トウロク</t>
     </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクの詳細情報の閲覧が可能</t>
     <rPh sb="4" eb="6">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>ショウサイ</t>
     </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
+      <t>エツラン</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認を取る資格一覧</t>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録したが承認を待つ資格一覧</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -890,6 +890,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,9 +958,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,240 +1289,240 @@
   <sheetData>
     <row r="6" spans="5:20" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="5:20">
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
     </row>
     <row r="8" spans="5:20">
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
     </row>
     <row r="9" spans="5:20">
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="5:20">
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11" spans="5:20">
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="5:20">
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13" spans="5:20">
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="5:20">
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="5:20">
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
     </row>
     <row r="16" spans="5:20">
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
     </row>
     <row r="17" spans="5:20">
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
     </row>
     <row r="18" spans="5:20">
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
     </row>
     <row r="19" spans="5:20" ht="18.600000000000001" thickBot="1">
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1808,7 +1808,7 @@
   <dimension ref="B1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2"/>
@@ -1824,19 +1824,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="13.8" thickBot="1"/>
     <row r="2" spans="2:6" ht="37.049999999999997" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:6" ht="38.549999999999997" customHeight="1" thickBot="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
@@ -1851,28 +1851,28 @@
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="43"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="18">
@@ -1884,7 +1884,7 @@
       <c r="D7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="19"/>
@@ -1899,7 +1899,7 @@
       <c r="D8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="19"/>
@@ -1914,7 +1914,7 @@
       <c r="D9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="19"/>
@@ -1924,13 +1924,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="19"/>
     </row>
@@ -1939,13 +1939,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>34</v>
+      <c r="E11" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="F11" s="19"/>
     </row>
@@ -1954,13 +1954,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>33</v>
+      <c r="E12" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="19"/>
     </row>
